--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/BIIB/BIIBNounTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/BIIB/BIIBNounTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/BIIB/BIIBNounTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/BIIB/BIIBNounTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
